--- a/Resources/PublicAPIs1.xlsx
+++ b/Resources/PublicAPIs1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\TSU_Excel.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009A6C82-8128-40CA-80DC-22B983FFE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE148D-8031-495B-9540-31FF47E25057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2308BB2F-905D-4F59-93FE-7FB93D8B6934}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
   </bookViews>
   <sheets>
-    <sheet name="Animals" sheetId="1" r:id="rId1"/>
-    <sheet name="Dictionaries" sheetId="2" r:id="rId2"/>
-    <sheet name="Entertainment" sheetId="3" r:id="rId3"/>
-    <sheet name="FoodAndDrink" sheetId="4" r:id="rId4"/>
+    <sheet name="Animals" sheetId="1" r:id="rId2"/>
+    <sheet name="Dictionaries" sheetId="2" r:id="rId1"/>
+    <sheet name="Entertainment" sheetId="3" r:id="rId4"/>
+    <sheet name="FoodAndDrink" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="390" uniqueCount="156">
   <si>
     <t>API</t>
   </si>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -573,21 +573,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,7 +759,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -783,9 +783,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -809,7 +809,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -844,7 +844,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -862,7 +862,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -887,7 +887,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -923,23 +923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="103.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="134.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="51.08984375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,29 +956,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -987,32 +987,32 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1021,35 +1021,35 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1058,32 +1058,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1092,12 +1092,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1109,29 +1109,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -1143,330 +1143,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html" xr:uid="{D7D1ECAD-F075-42B5-98EC-33DD24386875}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/" xr:uid="{0B0CA5A4-5B04-4253-A97B-F4A222E5535C}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/" xr:uid="{5D3D3AE4-0720-44AD-BE41-DE0017AF3379}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/" xr:uid="{D40FD778-2214-4E36-85CF-A1735901A78A}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/" xr:uid="{EF0E4F2E-CDC4-422F-8133-CE19C4C8D7B6}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/" xr:uid="{224DBDDC-6434-4584-B9B5-7FF329767DDF}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/" xr:uid="{E92D0B12-88C0-403B-B9E5-10BD30F61A27}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/" xr:uid="{2873FE29-EBD2-4F2F-BD19-7E042D14B9AD}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59" xr:uid="{5D3233EF-F132-4325-8F0E-CA6E151B8C4D}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers" xr:uid="{9D893ADF-5C78-4EFA-9636-E6434B51C985}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/" xr:uid="{20681994-8461-4C39-8E33-039AFC0BE9A9}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/" xr:uid="{BBB4B252-622B-416C-A6A2-744BF7E5B3C7}"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs" xr:uid="{7DCD2374-98E3-4BDD-B964-7D2947C8E7CB}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts" xr:uid="{37D9CA3F-0ED0-44CB-8E7D-6C540D8BF4F8}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc" xr:uid="{6BEEC700-D58B-43E0-B5F3-2C44FBCAF99E}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/" xr:uid="{92A59006-7569-4BC3-8610-F52A0FDD2F1F}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/" xr:uid="{A62A21CB-4362-448F-8FCB-D6EE60135BA9}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/" xr:uid="{F6735F67-4BC3-4717-B50F-D3FFC24730F4}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/" xr:uid="{DE5581FE-E82B-45DF-9253-22012DBC3562}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json" xr:uid="{FC997546-9644-4D19-B6CF-7692E96273B4}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api" xr:uid="{B7FF1F4B-AFB4-4A64-84D8-7863B373F70E}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/" xr:uid="{889B2EC1-CEF0-459F-94F8-2047F8FBB297}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home" xr:uid="{1CB1BC65-D2D6-4BCF-900A-4EA35D329DF5}"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/" xr:uid="{5440211D-2888-4840-929A-E1E222886F04}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/" xr:uid="{7BF05469-1110-4A3D-B46A-B770FAB73FA4}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api" xr:uid="{294C824A-2A98-4E63-8123-C2F9A6291163}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/" xr:uid="{196C60F6-1D5C-47B6-8B1B-BAA4C36D870B}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="134.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="103.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="63.81640625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,29 +1231,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -1514,32 +1262,32 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1548,35 +1296,35 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1585,32 +1333,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1619,12 +1367,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1636,29 +1384,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -1670,62 +1418,787 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/" xr:uid="{C4BF88EE-C0E4-4C84-932B-8CFC70256D94}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api" xr:uid="{5E0AC175-A075-4CF2-8F6F-0331956E7284}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/" xr:uid="{9CD2BDA8-F774-4EE3-B90B-1AD8BD83E6AE}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/" xr:uid="{C53CFEB4-FB40-4891-A6B0-866E043B3D0E}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/" xr:uid="{C1160B45-3D81-48BC-A615-4494D9F99BCE}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/" xr:uid="{F59E6F28-B2DB-4CB4-95B9-3D9F2F1C7E62}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/" xr:uid="{F449120D-CC02-4527-9E87-BA0FE49D9A13}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/" xr:uid="{0A035E68-4C03-4176-B54C-47ABF2329531}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/" xr:uid="{D051DEB7-431E-4B87-8451-BF6C224BF220}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php" xr:uid="{420F533A-0357-4E0E-915B-F12F22F0EB1B}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php" xr:uid="{8F2D5540-57CB-4B77-B466-13904BC3789B}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/" xr:uid="{6D1165D1-A8C0-486F-AE64-E0730DBB9CDB}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/" xr:uid="{682B3CE6-5E87-46B9-A636-C375196766B8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="123.36328125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="34.81640625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api"/>
+    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1734,14 +2207,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="121.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="56.08984375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.26953125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -1775,7 +2248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -1792,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -1809,7 +2282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1826,7 +2299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -1843,7 +2316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -1860,7 +2333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -1877,7 +2350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -1894,7 +2367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -1911,7 +2384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -1930,489 +2403,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/" xr:uid="{0E22D636-5465-42F3-BD78-CD4560F4C5E6}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api" xr:uid="{88B1A21A-59FF-4647-A4EB-55E4AAE5A79D}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/" xr:uid="{FF2EF5CC-572D-4676-AEE2-5F8C8F3DD6EC}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/" xr:uid="{5A6608B9-6DF2-4913-A677-3830965E9F06}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api" xr:uid="{EE4257AC-700B-4209-816F-56882DE13394}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/" xr:uid="{5CFB8F0A-7803-4BF5-8562-9895091A9DEE}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes" xr:uid="{48404F2C-0C38-4A15-8D3B-BA9CFAD45F25}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/" xr:uid="{7E371630-00A0-45B2-B620-63ADEF14E07D}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/" xr:uid="{4F01A0F4-78DE-4E2A-B46A-CDD8F024D250}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2" xr:uid="{63DEC5F6-53D4-47F7-B42E-9474DBEEC345}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="123.36328125" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/" xr:uid="{5A263990-01E2-4374-B796-E131FB5B8F31}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/" xr:uid="{915C928F-4293-4762-B510-EC2A5BAE1631}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/" xr:uid="{1936EDAA-2DB8-4F9B-B09E-606044794BE4}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api" xr:uid="{3B57600B-9E04-4001-A07D-7BBBBE197AA7}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api" xr:uid="{E2EC4D79-4485-4655-AD94-B07C88053145}"/>
-    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme" xr:uid="{0CE6F901-D71D-4B2E-8028-3F0D3FB8ADFE}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/" xr:uid="{672F73D6-E5F0-4D36-BFF0-BDF9BEF6A37C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference" xr:uid="{8D67D3DB-57AD-4F11-A798-54661D8D5892}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/" xr:uid="{FB5B7CCF-AE12-4A91-8A91-9BE0316904F1}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/" xr:uid="{0AF294AB-3943-4001-8C71-2AAE2F70B4E4}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data" xr:uid="{3432EAEB-300A-4302-87A3-18E954F43D36}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/" xr:uid="{823F8994-1491-4368-B5FD-C4B7D829A3CE}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/" xr:uid="{B480BA26-8C28-44E4-82F8-44A7CB30E806}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api" xr:uid="{F2222C63-E835-4A48-B975-2D4A1CF861A9}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/" xr:uid="{B0C68EFF-DB5B-436D-BA77-732BCF4FE6A2}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api" xr:uid="{34F76894-69AE-4DE2-BC8A-6EFB833B7278}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/" xr:uid="{FB95E8FF-D5CD-4C3B-B53F-A510D3D4AC3D}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API" xr:uid="{3F8D56A6-9DAA-4AD2-A4C0-7CC5F24AE2C1}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php" xr:uid="{6C431955-EE3D-4393-9ADD-EC0ABB3C8AD9}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php" xr:uid="{B1178DD2-0235-43D6-8AA4-264904888C2B}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs" xr:uid="{13310088-4109-4A4A-BACA-C39373DAD751}"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/" xr:uid="{F88C4FDB-84A4-46DE-AD6A-52487318F058}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/" xr:uid="{99A5D361-B48B-4317-95F3-5B458BF3C84E}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/" xr:uid="{BFBD9036-77BA-4261-9363-B7EEA20A5F58}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/PublicAPIs1.xlsx
+++ b/Resources/PublicAPIs1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\TSU_Excel.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\TSU_Excel.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE148D-8031-495B-9540-31FF47E25057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74B2E3-9358-4C9F-A7F8-F0B61FEF20C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Animals" sheetId="1" r:id="rId2"/>
-    <sheet name="Dictionaries" sheetId="2" r:id="rId1"/>
-    <sheet name="Entertainment" sheetId="3" r:id="rId4"/>
+    <sheet name="Entertainment" sheetId="3" r:id="rId1"/>
+    <sheet name="Dictionaries" sheetId="2" r:id="rId2"/>
     <sheet name="FoodAndDrink" sheetId="4" r:id="rId3"/>
+    <sheet name="Animals" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="390" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="156">
   <si>
     <t>API</t>
   </si>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -573,21 +573,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,7 +759,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -783,9 +783,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -809,7 +809,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -844,7 +844,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -862,7 +862,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -887,7 +887,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -923,23 +923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="134.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="121.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="51.08984375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,29 +956,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -987,18 +987,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1007,12 +1007,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="22.8">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1021,15 +1021,15 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -1041,32 +1041,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -1075,146 +1075,92 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="103.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="134.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="63.81640625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,29 +1177,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -1262,32 +1208,32 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.8">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -1296,35 +1242,35 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -1333,32 +1279,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="19.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1367,12 +1313,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="19.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -1384,29 +1330,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="19.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -1418,330 +1364,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="19.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="123.36328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="123.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="34.81640625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.6328125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -1775,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="19.2">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -1792,7 +1486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -1809,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="19.2">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -1826,7 +1520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="19.2">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -1843,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -1860,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>119</v>
       </c>
@@ -1877,7 +1571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="19.2">
       <c r="A9" s="2" t="s">
         <v>121</v>
       </c>
@@ -1894,7 +1588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="19.2">
       <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
@@ -1911,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1928,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -1945,7 +1639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>129</v>
       </c>
@@ -1962,7 +1656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>131</v>
       </c>
@@ -1979,7 +1673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="19.2">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -1996,7 +1690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="19.2">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
@@ -2013,7 +1707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +1724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="19.2">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
@@ -2047,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
@@ -2064,7 +1758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="19.2">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -2081,7 +1775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="19.2">
       <c r="A21" s="2" t="s">
         <v>145</v>
       </c>
@@ -2098,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -2115,7 +1809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="22.8">
       <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
@@ -2132,7 +1826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>152</v>
       </c>
@@ -2149,7 +1843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="19.2">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
@@ -2168,53 +1862,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api"/>
-    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="121.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="103.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="56.08984375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="5.26953125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="6.36328125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,29 +1925,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="19.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -2262,15 +1956,15 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2279,15 +1973,15 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
@@ -2296,32 +1990,32 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -2330,15 +2024,15 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -2347,15 +2041,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -2364,32 +2058,32 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.2">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -2398,21 +2092,327 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.2">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.8">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/PublicAPIs1.xlsx
+++ b/Resources/PublicAPIs1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="libxl" lastEdited="7" lowestEdited="7" rupBuild="4.5.1"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,15 +10,15 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E74B2E3-9358-4C9F-A7F8-F0B61FEF20C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3"/>
   </bookViews>
   <sheets>
+    <sheet name="Animals" sheetId="1" r:id="rId4"/>
+    <sheet name="Dictionaries" sheetId="2" r:id="rId2"/>
     <sheet name="Entertainment" sheetId="3" r:id="rId1"/>
-    <sheet name="Dictionaries" sheetId="2" r:id="rId2"/>
     <sheet name="FoodAndDrink" sheetId="4" r:id="rId3"/>
-    <sheet name="Animals" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="390" uniqueCount="156">
   <si>
     <t>API</t>
   </si>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -573,21 +573,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,7 +759,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -783,9 +783,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -809,7 +809,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -844,7 +844,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -862,7 +862,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -887,7 +887,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -923,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D047-40AA-4E4C-BC4A-2159D60D6BD0}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -932,14 +932,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="121.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="56.109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.21875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -973,7 +973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>91</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.8">
+    <row r="5" ht="22.8">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>97</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>105</v>
       </c>
@@ -1128,23 +1128,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://api.chucknorris.io/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://github.com/sameerkumar18/corporate-bs-generator-api"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://excuser.herokuapp.com/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://api.aakhilv.me/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://imgflip.com/api"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://mememaker.github.io/API/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://github.com/theIYD/NaMoMemes"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://uselessfacts.jsph.pl/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://techy-api.vercel.app/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://github.com/beanboi7/yomomma-apiv2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FEDAA-A903-4600-ADD3-5456243ED2C1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,14 +1153,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="134.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="51.109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.2">
+    <row r="4" ht="19.2">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.8">
+    <row r="5" ht="22.8">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.2">
+    <row r="7" ht="19.2">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.2">
+    <row r="8" ht="19.2">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.2">
+    <row r="9" ht="19.2">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.2">
+    <row r="10" ht="19.2">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.2">
+    <row r="11" ht="19.2">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.2">
+    <row r="13" ht="19.2">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.2">
+    <row r="14" ht="19.2">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -1400,26 +1400,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://ccdb.hemiola.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ctext.org/tools/api"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://api.collinsdictionary.com/api/v1/documentation/html/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://dictionaryapi.dev/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://new-kbbi-api.herokuapp.com/"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.linguarobot.io/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://dictionaryapi.com/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://owlbot.info/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://developer.oxforddictionaries.com/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.synonyms.com/synonyms_api.php"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://en.wiktionary.org/w/api.php"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://developer.wordnik.com/"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.wordsapi.com/docs/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AEC1E4-D93D-465F-B47E-0D31C382A8BF}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1428,14 +1428,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123.33203125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="34.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.2">
+    <row r="3" ht="19.2">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>111</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.2">
+    <row r="5" ht="19.2">
       <c r="A5" s="2" t="s">
         <v>113</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.2">
+    <row r="6" ht="19.2">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>119</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.2">
+    <row r="9" ht="19.2">
       <c r="A9" s="2" t="s">
         <v>121</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.2">
+    <row r="10" ht="19.2">
       <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>129</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>131</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.2">
+    <row r="15" ht="19.2">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.2">
+    <row r="16" ht="19.2">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.2">
+    <row r="18" ht="19.2">
       <c r="A18" s="2" t="s">
         <v>139</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.2">
+    <row r="20" ht="19.2">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.2">
+    <row r="21" ht="19.2">
       <c r="A21" s="2" t="s">
         <v>145</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22.8">
+    <row r="23" ht="22.8">
       <c r="A23" s="2" t="s">
         <v>150</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>152</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.2">
+    <row r="25" ht="19.2">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
@@ -1862,53 +1862,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://baconmockup.com/"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://chompthis.com/api/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://coffee.alexflipnote.dev/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://developer.edamam.com/edamam-docs-nutrition-api"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://developer.edamam.com/edamam-docs-recipe-api"/>
+    <hyperlink ref="A7" r:id="rId6" location="readme" display="https://github.com/surhud004/Foodish - readme"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.fruityvice.com/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://developer.kroger.com/reference"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://lcboapi.com/"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.openbrewerydb.org/"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://world.openfoodfacts.org/data"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://punkapi.com/"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://rustybeer.herokuapp.com/"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://spoonacular.com/food-api"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://api-portal.systembolaget.se/"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://github.com/evz/tacofancy-api"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://rapidapi.com/apidojo/api/tasty/"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://github.com/andyklimczak/TheReportOfTheWeek-API"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.thecocktaildb.com/api.php"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.themealdb.com/api.php"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://untappd.com/api/docs"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://nypl.github.io/menus-api/"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://whiskyhunter.net/api/"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://zestfuldata.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FDA470-0492-4D9F-BABD-965C1D9743CE}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="103.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="63.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.6640625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.2">
+    <row r="2" ht="19.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.2">
+    <row r="6" ht="19.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.2">
+    <row r="10" ht="19.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.2">
+    <row r="14" ht="19.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.2">
+    <row r="17" ht="19.2">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" ht="28.8">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.8">
+    <row r="26" ht="22.8">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2386,33 +2386,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.adoptapet.com/public/apis/pet_list.html"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://theaxolotlapi.netlify.app/"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://alexwohlbruck.github.io/cat-facts/"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://cataas.com/"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://docs.thecatapi.com/"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://dukengn.github.io/Dog-facts-API/"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://kinduff.github.io/dog-api/"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dog.ceo/dog-api/"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://documenter.getpostman.com/view/664302/S1ENwy59"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.fishwatch.gov/developers"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://http.cat/"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://http.dog/"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://apiv3.iucnredlist.org/api/v3/docs"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://github.com/wh-iterabb-it/meowfacts"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://github.com/movebank/movebank-api-doc"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.petfinder.com/developers/"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://placebear.com/"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://place.dog/"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://placekitten.com/"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://random.dog/woof.json"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://random-d.uk/api"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://randomfox.ca/floof/"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://userguide.rescuegroups.org/display/APIDG/API+Developers+Guide+Home"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://shibe.online/"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://thedogapi.com/"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://xeno-canto.org/explore/api"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://zoo-animal-api.herokuapp.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
